--- a/reports/Yeo7/wordcloud.xlsx
+++ b/reports/Yeo7/wordcloud.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Projects\Project_PhD_2_NKI\Patterns-of-Thought\reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Projects\Project_PhD_2_NKI\Patterns-of-Thought\reports\Yeo7\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="13020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="13020" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="v" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="59">
   <si>
     <t>Concerns</t>
   </si>
@@ -1024,7 +1024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
@@ -4796,15 +4796,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C32"/>
+  <dimension ref="A2:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G28" sqref="E2:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4</v>
       </c>
@@ -4814,8 +4818,17 @@
       <c r="C2" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4</v>
       </c>
@@ -4825,8 +4838,17 @@
       <c r="C3" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -4836,8 +4858,17 @@
       <c r="C4" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4847,8 +4878,17 @@
       <c r="C5" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4858,8 +4898,17 @@
       <c r="C6" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -4869,8 +4918,17 @@
       <c r="C7" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -4880,8 +4938,17 @@
       <c r="C8" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -4891,8 +4958,17 @@
       <c r="C9" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
@@ -4902,8 +4978,17 @@
       <c r="C10" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -4913,8 +4998,17 @@
       <c r="C11" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
@@ -4924,8 +5018,17 @@
       <c r="C12" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4</v>
       </c>
@@ -4935,8 +5038,17 @@
       <c r="C13" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -4946,8 +5058,17 @@
       <c r="C14" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -4957,8 +5078,17 @@
       <c r="C15" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
@@ -4968,8 +5098,17 @@
       <c r="C16" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
@@ -4979,8 +5118,17 @@
       <c r="C17" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
@@ -4990,8 +5138,17 @@
       <c r="C18" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3</v>
       </c>
@@ -5001,8 +5158,17 @@
       <c r="C19" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -5012,8 +5178,17 @@
       <c r="C20" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -5023,8 +5198,17 @@
       <c r="C21" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -5034,8 +5218,17 @@
       <c r="C22" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -5045,8 +5238,17 @@
       <c r="C23" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
@@ -5056,8 +5258,17 @@
       <c r="C24" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -5067,8 +5278,17 @@
       <c r="C25" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -5078,8 +5298,17 @@
       <c r="C26" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -5089,8 +5318,17 @@
       <c r="C27" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -5100,8 +5338,17 @@
       <c r="C28" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -5112,7 +5359,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -5123,7 +5370,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -5134,7 +5381,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -5147,5 +5394,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>